--- a/DefinedLists/Procedure/Procedure.xlsx
+++ b/DefinedLists/Procedure/Procedure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\NEMSIS\NEMSIS V3\Suggested Lists_Final for v3.5.0\Most Current Defined Lists on Website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Documents\NEMSIS TAC\Repository\nemsis_public\DefinedLists\Procedure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED1396CC-315B-465A-B1AC-956B43A1006F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E8AE8E3-17D9-4F03-B4C3-C48D624AF4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommendation" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="283">
   <si>
     <t>PARENT</t>
   </si>
@@ -812,10 +812,6 @@
   </si>
   <si>
     <t>Includes 89003005 Oral temperature</t>
-  </si>
-  <si>
-    <t>Most Recent Update: 11/11/2020
-See Change Log tab for details</t>
   </si>
   <si>
     <t>DATE</t>
@@ -886,6 +882,22 @@
   </si>
   <si>
     <t>eProcedure.03: Procedure Defined List</t>
+  </si>
+  <si>
+    <t>Transfusion of blood</t>
+  </si>
+  <si>
+    <t>Transfusion of Blood Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+See Change Log tab for details</t>
+  </si>
+  <si>
+    <t>Added 01/15/2025</t>
+  </si>
+  <si>
+    <t>01/15/2025 Added to list.</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1178,91 +1190,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1271,31 +1265,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1304,53 +1298,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1361,79 +1346,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1762,45 +1713,45 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="45.7265625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="87" style="8" customWidth="1"/>
-    <col min="5" max="5" width="94.7265625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="8"/>
-    <col min="7" max="7" width="5.81640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.7265625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="59.1796875" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="30.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="87" style="7" customWidth="1"/>
+    <col min="5" max="5" width="94.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="7"/>
+    <col min="7" max="7" width="5.88671875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="59.109375" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="62" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D3" s="53"/>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="46"/>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1809,1562 +1760,1542 @@
       <c r="C4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="41"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>18629005</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>386358000</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>431393006</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>103744005</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>56251003</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>57485005</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="12" t="s">
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>371907003</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>371908008</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="48"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" s="11">
+        <v>116859006</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C16" s="11">
         <v>230040009</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C17" s="11">
         <v>425447009</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="B17" s="24" t="s">
+    <row r="18" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C18" s="36">
         <v>243140006</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D18" s="37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="25" t="s">
+    <row r="19" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="47"/>
+      <c r="B19" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C19" s="50">
         <v>284029005</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D19" s="37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="22" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C20" s="30">
         <v>23690002</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D20" s="31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="4" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C21" s="11">
         <v>182692007</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="4" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C22" s="11">
         <v>7443007</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="4" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C23" s="11">
         <v>232664002</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="48"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="51"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="41"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="44"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C25" s="45">
         <v>243142003</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="4" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C26" s="14">
         <v>47545007</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="4" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C27" s="45">
         <v>225718003</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D27" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="22" t="s">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C28" s="11">
         <v>425543005</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D28" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="60"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="4" t="s">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C29" s="30">
         <v>429705000</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D29" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C30" s="14">
+        <v>427753009</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="C29" s="16">
-        <v>427753009</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="69" t="s">
-        <v>276</v>
-      </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="4" t="s">
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C31" s="14">
         <v>424979004</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E31" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="4" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C32" s="14">
         <v>232674004</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E32" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="17" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="58">
+        <v>450601000124103</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" s="14">
+        <v>241689008</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="C32" s="70">
-        <v>450601000124103</v>
-      </c>
-      <c r="D32" s="19" t="s">
+      <c r="C35" s="62">
+        <v>450611000124100</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E35" s="55" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="14">
+        <v>45851008</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="14">
+        <v>385857005</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="41"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="60"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" s="4">
+        <v>408994004</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" s="4">
+        <v>422618004</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" s="4">
+        <v>315639002</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="67">
+        <v>225398001</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="25">
+        <v>423850004</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="25">
+        <v>386053000</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" s="25">
+        <v>270352002</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" s="25">
+        <v>171397002</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="25">
+        <v>182777000</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="41"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="43"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="11">
+        <v>23852006</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="11">
+        <v>268400002</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="11">
+        <v>428803005</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="11">
+        <v>29303009</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="11">
+        <v>46825001</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="41"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="43"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="30">
+        <v>250980009</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="11">
+        <v>429283006</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="11">
+        <v>89666000</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="62">
+        <v>450661000124102</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="E58" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="E32" s="69" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C33" s="16">
-        <v>241689008</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="73" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="25">
+        <v>426220008</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="25">
+        <v>386237008</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="34">
+        <v>18590009</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" s="14">
+        <v>128968000</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="41"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="43"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C64" s="14">
+        <v>228621007</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="14">
+        <v>431774007</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="14">
+        <v>431949004</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="41"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="43"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="16">
+        <v>87750000</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="11">
+        <v>235425002</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="41"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="43"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="11">
+        <v>33747003</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="11">
+        <v>386328006</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="41"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="43"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" s="11">
+        <v>49689007</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="63" t="s">
         <v>272</v>
       </c>
-      <c r="C34" s="74">
-        <v>450611000124100</v>
-      </c>
-      <c r="D34" s="73" t="s">
-        <v>265</v>
-      </c>
-      <c r="E34" s="65" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="16">
-        <v>45851008</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B36" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C36" s="16">
-        <v>385857005</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="48"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C38" s="85">
-        <v>408994004</v>
-      </c>
-      <c r="D38" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="60" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="84"/>
-      <c r="B39" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" s="85">
-        <v>422618004</v>
-      </c>
-      <c r="D39" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="60"/>
-    </row>
-    <row r="40" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="84"/>
-      <c r="B40" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="C40" s="85">
-        <v>315639002</v>
-      </c>
-      <c r="D40" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="60"/>
-    </row>
-    <row r="41" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="84"/>
-      <c r="B41" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C41" s="87">
-        <v>225398001</v>
-      </c>
-      <c r="D41" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="60" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="84"/>
-      <c r="B42" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="C42" s="89">
-        <v>423850004</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="60"/>
-    </row>
-    <row r="43" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="84"/>
-      <c r="B43" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" s="89">
-        <v>386053000</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="60"/>
-    </row>
-    <row r="44" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="84"/>
-      <c r="B44" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C44" s="89">
-        <v>270352002</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="60" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="84"/>
-      <c r="B45" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="C45" s="89">
-        <v>171397002</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="60"/>
-    </row>
-    <row r="46" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="84"/>
-      <c r="B46" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="89">
-        <v>182777000</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="60"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="48"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="C48" s="27">
-        <v>23852006</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B49" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C49" s="13">
-        <v>268400002</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B50" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C50" s="13">
-        <v>428803005</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B51" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C51" s="13">
-        <v>29303009</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B52" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C52" s="13">
-        <v>46825001</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="48"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="36">
-        <v>250980009</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="10"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B55" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C55" s="13">
-        <v>429283006</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="10"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B56" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" s="13">
-        <v>89666000</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="10"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B57" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="77">
-        <v>450661000124102</v>
-      </c>
-      <c r="D57" s="78" t="s">
+      <c r="C75" s="64">
+        <v>707794004</v>
+      </c>
+      <c r="D75" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="E75" s="55" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="C76" s="64">
+        <v>450591000124106</v>
+      </c>
+      <c r="D76" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="E57" s="65" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B58" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="31">
-        <v>426220008</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="10"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B59" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" s="31">
-        <v>386237008</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="10"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B60" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" s="40">
-        <v>18590009</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="10"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B61" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="C61" s="16">
-        <v>128968000</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="48"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="50"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="C63" s="16">
-        <v>228621007</v>
-      </c>
-      <c r="D63" s="37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B64" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="C64" s="16">
-        <v>431774007</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B65" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="C65" s="16">
-        <v>431949004</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="48"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="50"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="18">
-        <v>87750000</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B68" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" s="13">
-        <v>235425002</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="48"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="50"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" s="27">
-        <v>33747003</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B71" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C71" s="13">
-        <v>386328006</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="48"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="50"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="C73" s="13">
-        <v>49689007</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B74" s="75" t="s">
-        <v>273</v>
-      </c>
-      <c r="C74" s="76">
-        <v>707794004</v>
-      </c>
-      <c r="D74" s="75" t="s">
-        <v>268</v>
-      </c>
-      <c r="E74" s="65" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B75" s="75" t="s">
-        <v>274</v>
-      </c>
-      <c r="C75" s="76">
-        <v>450591000124106</v>
-      </c>
-      <c r="D75" s="75" t="s">
-        <v>267</v>
-      </c>
-      <c r="E75" s="65" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B76" s="12" t="s">
+      <c r="E76" s="55" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C77" s="11">
         <v>182556001</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D77" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B77" s="4" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C78" s="11">
         <v>79321009</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D78" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B78" s="4" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C79" s="11">
         <v>302488007</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D79" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="48"/>
-      <c r="B79" s="47"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="72"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="7" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="41"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="60"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B81" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="C80" s="38">
+      <c r="C81" s="32">
         <v>78086002</v>
       </c>
-      <c r="D80" s="39" t="s">
+      <c r="D81" s="33" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B81" s="12" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C82" s="11">
         <v>409582008</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D82" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="54"/>
-      <c r="B82" s="25" t="s">
+    <row r="83" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="47"/>
+      <c r="B83" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C82" s="55">
+      <c r="C83" s="48">
         <v>182705007</v>
       </c>
-      <c r="D82" s="56" t="s">
+      <c r="D83" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="E82" s="44" t="s">
+      <c r="E83" s="38" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B83" s="12" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C83" s="38">
+      <c r="C84" s="32">
         <v>22633006</v>
       </c>
-      <c r="D83" s="39" t="s">
+      <c r="D84" s="33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="48"/>
-      <c r="B84" s="47"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="50"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="7" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="41"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="43"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B86" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C86" s="11">
         <v>423184003</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D86" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B86" s="12" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C87" s="11">
         <v>423401003</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D87" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B87" s="12" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C88" s="11">
         <v>225399009</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D88" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E88" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B88" s="12" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C89" s="11">
         <v>278414003</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D89" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="48"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="50"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="7" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="41"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="43"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B91" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C91" s="11">
         <v>58715004</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D91" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B91" s="12" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B92" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C92" s="11">
         <v>56469005</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D92" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B92" s="12" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B93" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C92" s="38">
+      <c r="C93" s="32">
         <v>225287004</v>
       </c>
-      <c r="D92" s="39" t="s">
+      <c r="D93" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E93" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B93" s="4" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C93" s="16">
+      <c r="C94" s="14">
         <v>386423001</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D94" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="48"/>
-      <c r="B94" s="47"/>
-      <c r="C94" s="49"/>
-      <c r="D94" s="50"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="7" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="41"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="43"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C96" s="11">
         <v>398041008</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D96" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B96" s="12" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C97" s="11">
         <v>449199004</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D97" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B97" s="12" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B98" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C98" s="11">
         <v>426498007</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D98" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B98" s="4" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C99" s="11">
         <v>445828009</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D99" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E98" s="15"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B99" s="4" t="s">
+      <c r="E99" s="13"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C100" s="11">
         <v>284405008</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D100" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B100" s="4" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B101" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C101" s="11">
         <v>284394000</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D101" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="48"/>
-      <c r="B101" s="47"/>
-      <c r="C101" s="49"/>
-      <c r="D101" s="50"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="7" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="41"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="43"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C102" s="13">
+      <c r="C103" s="11">
         <v>304562007</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D103" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B103" s="12" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B104" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C103" s="13">
+      <c r="C104" s="11">
         <v>429202003</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="D104" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B104" s="12" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B105" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C104" s="13">
+      <c r="C105" s="11">
         <v>308292007</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D105" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="48"/>
-      <c r="B105" s="47"/>
-      <c r="C105" s="49"/>
-      <c r="D105" s="50"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="7" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="41"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="43"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="B107" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="C106" s="13">
+      <c r="C107" s="11">
         <v>392247006</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="D107" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B107" s="21" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B108" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C107" s="13">
+      <c r="C108" s="11">
         <v>226005007</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D108" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B108" s="12" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B109" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C108" s="13">
+      <c r="C109" s="11">
         <v>425074000</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D109" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B109" s="21" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B110" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C110" s="11">
         <v>430824005</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D110" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B110" s="4" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B111" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C111" s="11">
         <v>392230005</v>
       </c>
-      <c r="D110" s="14" t="s">
+      <c r="D111" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E111" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B111" s="35" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B112" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C112" s="11">
         <v>353008</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D112" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E112" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B112" s="24" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B113" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="C112" s="13">
+      <c r="C113" s="11">
         <v>424287005</v>
       </c>
-      <c r="D112" s="14" t="s">
+      <c r="D113" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B113" s="21" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B114" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C113" s="13">
+      <c r="C114" s="11">
         <v>396540005</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="D114" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E114" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B114" s="22" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B115" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C114" s="13">
+      <c r="C115" s="11">
         <v>405427009</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="D115" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="48"/>
-      <c r="B115" s="47"/>
-      <c r="C115" s="49"/>
-      <c r="D115" s="50"/>
-      <c r="E115" s="9"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="7" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="41"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="8"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B117" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C116" s="31">
+      <c r="C117" s="25">
         <v>46973005</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D117" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E117" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B117" s="12" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B118" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C117" s="32">
+      <c r="C118" s="26">
         <v>248753002</v>
       </c>
-      <c r="D117" s="33" t="s">
+      <c r="D118" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E118" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B118" s="12" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B119" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C119" s="4">
         <v>68664003</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D119" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B119" s="12" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B120" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C120" s="4">
         <v>65653002</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D120" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B120" s="12" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B121" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C121" s="4">
         <v>252465000</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D121" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E121" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B121" s="12" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B122" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C121" s="36">
+      <c r="C122" s="30">
         <v>408867002</v>
       </c>
-      <c r="D121" s="37" t="s">
+      <c r="D122" s="31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B122" s="12" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B123" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C123" s="4">
         <v>56342008</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D123" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E123" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B123" s="12" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B124" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C124" s="4">
         <v>61746007</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D124" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B124" s="4" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B125" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C125" s="4">
         <v>425058005</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D125" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" s="48"/>
-      <c r="B125" s="47"/>
-      <c r="C125" s="49"/>
-      <c r="D125" s="50"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" s="7" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="41"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="43"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B127" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C126" s="13">
+      <c r="C127" s="11">
         <v>447686008</v>
       </c>
-      <c r="D126" s="23" t="s">
+      <c r="D127" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B127" s="12" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B128" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C127" s="13">
+      <c r="C128" s="11">
         <v>182555002</v>
       </c>
-      <c r="D127" s="23" t="s">
+      <c r="D128" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B128" s="12" t="s">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C128" s="13">
+      <c r="C129" s="11">
         <v>373675000</v>
       </c>
-      <c r="D128" s="23" t="s">
+      <c r="D129" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B129" s="12" t="s">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C129" s="13">
+      <c r="C130" s="11">
         <v>133901003</v>
       </c>
-      <c r="D129" s="23" t="s">
+      <c r="D130" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B130" s="12" t="s">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B131" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C130" s="13">
+      <c r="C131" s="11">
         <v>182531007</v>
       </c>
-      <c r="D130" s="30" t="s">
+      <c r="D131" s="24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B131" s="4" t="s">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B132" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C131" s="13">
+      <c r="C132" s="11">
         <v>22206003</v>
       </c>
-      <c r="D131" s="34" t="s">
+      <c r="D132" s="28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B132" s="4" t="s">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B133" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C132" s="13">
+      <c r="C133" s="11">
         <v>26906007</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D133" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B133" s="4" t="s">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B134" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C133" s="13">
+      <c r="C134" s="11">
         <v>372045002</v>
       </c>
-      <c r="D133" s="34" t="s">
+      <c r="D134" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B134" s="4" t="s">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B135" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C134" s="13">
+      <c r="C135" s="11">
         <v>225116006</v>
       </c>
-      <c r="D134" s="34" t="s">
+      <c r="D135" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B135" s="4" t="s">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B136" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C135" s="13">
+      <c r="C136" s="11">
         <v>20655006</v>
       </c>
-      <c r="D135" s="34" t="s">
+      <c r="D136" s="28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B136" s="4" t="s">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B137" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C136" s="13">
+      <c r="C137" s="11">
         <v>225358003</v>
       </c>
-      <c r="D136" s="34" t="s">
+      <c r="D137" s="28" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B25:E35">
-    <sortCondition ref="B25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B26:E36">
+    <sortCondition ref="B26"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="C35">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3376,173 +3307,189 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" customWidth="1"/>
-    <col min="5" max="5" width="47.1796875" customWidth="1"/>
-    <col min="6" max="6" width="112.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" customWidth="1"/>
+    <col min="6" max="6" width="112.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="68">
+        <v>44146</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="56">
+        <v>427753009</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="68">
+        <v>44146</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="66">
+        <v>450601000124103</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="64">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="68">
         <v>44146</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B4" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="66">
-        <v>427753009</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="64">
+      <c r="C4" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="66">
+        <v>450611000124100</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="68">
         <v>44146</v>
       </c>
-      <c r="B3" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" s="80">
-        <v>450601000124103</v>
-      </c>
-      <c r="E3" s="66" t="s">
+      <c r="B5" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="66">
+        <v>450661000124102</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="F3" s="67" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="64">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="68">
         <v>44146</v>
       </c>
-      <c r="B4" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="66" t="s">
+      <c r="B6" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="80">
-        <v>450611000124100</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>265</v>
-      </c>
-      <c r="F4" s="67" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="64">
+      <c r="D6" s="66">
+        <v>707794004</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="68">
         <v>44146</v>
       </c>
-      <c r="B5" s="81" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="83">
-        <v>450661000124102</v>
-      </c>
-      <c r="E5" s="82" t="s">
+      <c r="B7" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="66">
+        <v>450591000124106</v>
+      </c>
+      <c r="E7" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="F5" s="67" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="64">
-        <v>44146</v>
-      </c>
-      <c r="B6" s="79" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="81" t="s">
-        <v>273</v>
-      </c>
-      <c r="D6" s="83">
-        <v>707794004</v>
-      </c>
-      <c r="E6" s="81" t="s">
-        <v>268</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="64">
-        <v>44146</v>
-      </c>
-      <c r="B7" s="79" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="81" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7" s="83">
-        <v>450591000124106</v>
-      </c>
-      <c r="E7" s="81" t="s">
-        <v>267</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="68"/>
+      <c r="F7" s="57" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="68">
+        <v>45672</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="61">
+        <v>116859006</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>282</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>